--- a/环境类/接口列表.xlsx
+++ b/环境类/接口列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>接口名称</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>{"result_code":"0","message":"ok","return_data":[{...}]}</t>
+  </si>
+  <si>
+    <t>information_id,information_title</t>
   </si>
 </sst>
 </file>
@@ -73,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,6 +96,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -106,39 +116,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,9 +162,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,67 +226,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,19 +266,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,133 +398,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +439,74 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,221 +539,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1017,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1063,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="60" spans="1:7">
+    <row r="2" ht="60" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1084,6 +1087,9 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/环境类/接口列表.xlsx
+++ b/环境类/接口列表.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$128</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>接口名称</t>
   </si>
@@ -43,10 +46,16 @@
     <t>return_data返回数据示例</t>
   </si>
   <si>
+    <t>优先级</t>
+  </si>
+  <si>
     <t>已完成</t>
   </si>
   <si>
-    <t>1.查询平台资讯列表</t>
+    <t>说明:返回结果的内容可以比Bean里面的内容少,不能多</t>
+  </si>
+  <si>
+    <t>查询平台资讯列表</t>
   </si>
   <si>
     <t>http://www.fstechnology.cn:8080/YZEduDBServer/PlatformInformations</t>
@@ -61,13 +70,529 @@
     <t>page int 类型</t>
   </si>
   <si>
-    <t>"page","1"</t>
+    <t>"page",1</t>
   </si>
   <si>
     <t>{"result_code":"0","message":"ok","return_data":[{...}]}</t>
   </si>
   <si>
     <t>information_id,information_title</t>
+  </si>
+  <si>
+    <t>List&lt;InformationBean&gt;</t>
+  </si>
+  <si>
+    <t>院校资讯列表</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/SchoolInformations</t>
+  </si>
+  <si>
+    <t>"page",1;"school_id",305</t>
+  </si>
+  <si>
+    <t>最新课程列表</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/NewCourse</t>
+  </si>
+  <si>
+    <t>List&lt;CourseBean&gt;</t>
+  </si>
+  <si>
+    <t>热门课程列表</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/TopCourse</t>
+  </si>
+  <si>
+    <t>直播课程列表</t>
+  </si>
+  <si>
+    <t>List&lt;LiveRoomBean&gt;</t>
+  </si>
+  <si>
+    <t>banner广告列表</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/Banners</t>
+  </si>
+  <si>
+    <t>分类列表</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/Classifications</t>
+  </si>
+  <si>
+    <t>一门课程信息</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/CourseDetail</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>course_id int类型</t>
+  </si>
+  <si>
+    <t>"course_id",3298</t>
+  </si>
+  <si>
+    <t>CourseBean</t>
+  </si>
+  <si>
+    <t>一个直播信息</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/LiveDetail</t>
+  </si>
+  <si>
+    <t>live_room_id</t>
+  </si>
+  <si>
+    <t>live_room_id int类型</t>
+  </si>
+  <si>
+    <t>"live_room_id",1</t>
+  </si>
+  <si>
+    <t>LiveRoomBean</t>
+  </si>
+  <si>
+    <t>一节课列表(Lesson)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fstechnology.cn:8080/YZEduDBServer/Lessons </t>
+  </si>
+  <si>
+    <t>分类结果列表</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/ClassificationCourse</t>
+  </si>
+  <si>
+    <t>user_id,classification_id</t>
+  </si>
+  <si>
+    <t>user_id int类型,classification_id int类型</t>
+  </si>
+  <si>
+    <t>"user_id",1;"classification_id" 1</t>
+  </si>
+  <si>
+    <t>搜索结果列表</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/SearchCourse</t>
+  </si>
+  <si>
+    <t>user_id,keyword</t>
+  </si>
+  <si>
+    <t>user_id int类型,keyword String类型</t>
+  </si>
+  <si>
+    <t>"user_id",1;"keyword" Shell</t>
+  </si>
+  <si>
+    <t>课程交流列表</t>
+  </si>
+  <si>
+    <t>学生登录</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/StudentLogin</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>student_id,student_password</t>
+  </si>
+  <si>
+    <t>student_id int类型,student_password String类型</t>
+  </si>
+  <si>
+    <t>StudentBean</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/UserLogin</t>
+  </si>
+  <si>
+    <t>user_id,student_password</t>
+  </si>
+  <si>
+    <t>user_id int类型,user_password  String类型</t>
+  </si>
+  <si>
+    <t>判断该用户是被学生用户还是教师用户绑定,返回TeacherBean或StudentBean,如果是自由人没有绑定,则返回StudentBean,学号设为null,学生姓名设为("用户"+手机号)</t>
+  </si>
+  <si>
+    <t>教师登录</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/TeacherLogin</t>
+  </si>
+  <si>
+    <t>teacher_id,teacher_password</t>
+  </si>
+  <si>
+    <t>teacher_id int 类型,teacher_password String类型</t>
+  </si>
+  <si>
+    <t>TeacherBean</t>
+  </si>
+  <si>
+    <t>教务登录</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/EduAdminLogin</t>
+  </si>
+  <si>
+    <t>edu_admin_id,edu_admin_password</t>
+  </si>
+  <si>
+    <t>edu_admin_id int类型,edu_admin_password String类型</t>
+  </si>
+  <si>
+    <t>EduAdminBean</t>
+  </si>
+  <si>
+    <t>运营管理员登录</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/AdminLogin</t>
+  </si>
+  <si>
+    <t>admin_id,admin_password</t>
+  </si>
+  <si>
+    <t>admin_id int 类型,admin password String类型</t>
+  </si>
+  <si>
+    <t>AdminBean</t>
+  </si>
+  <si>
+    <t>一条院校资讯详情</t>
+  </si>
+  <si>
+    <t>school_information_id,school_id</t>
+  </si>
+  <si>
+    <t>一条平台资讯详情</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8081/YZEduDBServer/PlatformInformations</t>
+  </si>
+  <si>
+    <t>学生选课情况</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/IsMyCourse</t>
+  </si>
+  <si>
+    <t>选课</t>
+  </si>
+  <si>
+    <t>我的课程列表</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/MyCourse</t>
+  </si>
+  <si>
+    <t>错题列表</t>
+  </si>
+  <si>
+    <t>课程考试(习题列表)</t>
+  </si>
+  <si>
+    <t>课程交流评论列表</t>
+  </si>
+  <si>
+    <t>综合练习(习题列表)</t>
+  </si>
+  <si>
+    <t>提交习题</t>
+  </si>
+  <si>
+    <t>提交考试</t>
+  </si>
+  <si>
+    <t>新发表交流</t>
+  </si>
+  <si>
+    <t>新发表评论</t>
+  </si>
+  <si>
+    <t>交流点赞</t>
+  </si>
+  <si>
+    <t>取消交流点赞</t>
+  </si>
+  <si>
+    <t>我的实训列表(课程)</t>
+  </si>
+  <si>
+    <t>实训列表</t>
+  </si>
+  <si>
+    <t>实训详情</t>
+  </si>
+  <si>
+    <t>提交实训任务</t>
+  </si>
+  <si>
+    <t>我进行中的任务列表</t>
+  </si>
+  <si>
+    <t>我的全部任务列表</t>
+  </si>
+  <si>
+    <t>我已结束的任务列表</t>
+  </si>
+  <si>
+    <t>我的成绩列表</t>
+  </si>
+  <si>
+    <t>我的个人资料</t>
+  </si>
+  <si>
+    <t>提交课程信息</t>
+  </si>
+  <si>
+    <t>上传课程资料</t>
+  </si>
+  <si>
+    <t>提交课程考试</t>
+  </si>
+  <si>
+    <t>提交综合练习</t>
+  </si>
+  <si>
+    <t>本班学生能力档案列表</t>
+  </si>
+  <si>
+    <t>学生试卷列表</t>
+  </si>
+  <si>
+    <t>新增一节课</t>
+  </si>
+  <si>
+    <t>我的任务列表(教师-教学班)</t>
+  </si>
+  <si>
+    <t>发布一个任务</t>
+  </si>
+  <si>
+    <t>本校班级列表</t>
+  </si>
+  <si>
+    <t>本校院系列表</t>
+  </si>
+  <si>
+    <t>本校教师列表</t>
+  </si>
+  <si>
+    <t>本校学生列表</t>
+  </si>
+  <si>
+    <t>本校课程列表</t>
+  </si>
+  <si>
+    <t>本校教务列表</t>
+  </si>
+  <si>
+    <t>本校直播间列表</t>
+  </si>
+  <si>
+    <t>本校轮播图列表</t>
+  </si>
+  <si>
+    <t>本校资讯列表</t>
+  </si>
+  <si>
+    <t>本校公告列表</t>
+  </si>
+  <si>
+    <t>本校学生成绩列表</t>
+  </si>
+  <si>
+    <t>本校学生能力档案列表</t>
+  </si>
+  <si>
+    <t>本校学友圈列表</t>
+  </si>
+  <si>
+    <t>所有院校列表</t>
+  </si>
+  <si>
+    <t>管理员列表</t>
+  </si>
+  <si>
+    <t>平台轮播图列表</t>
+  </si>
+  <si>
+    <t>平台资讯列表</t>
+  </si>
+  <si>
+    <t>展示课程列表</t>
+  </si>
+  <si>
+    <t>平台敏感词列表</t>
+  </si>
+  <si>
+    <t>入驻申请列表</t>
+  </si>
+  <si>
+    <t>已处理申请列表</t>
+  </si>
+  <si>
+    <t>提交意见反馈</t>
+  </si>
+  <si>
+    <t>悦读列表</t>
+  </si>
+  <si>
+    <t>课程资料列表</t>
+  </si>
+  <si>
+    <t>我的能力档案</t>
+  </si>
+  <si>
+    <t>提交试卷批改</t>
+  </si>
+  <si>
+    <t>批改综合练习</t>
+  </si>
+  <si>
+    <t>添加一个班级</t>
+  </si>
+  <si>
+    <t>删除一个班级</t>
+  </si>
+  <si>
+    <t>修改班级信息</t>
+  </si>
+  <si>
+    <t>添加一个院系</t>
+  </si>
+  <si>
+    <t>修改一个院系</t>
+  </si>
+  <si>
+    <t>删除一个院系</t>
+  </si>
+  <si>
+    <t>添加一个老师</t>
+  </si>
+  <si>
+    <t>修改老师信息</t>
+  </si>
+  <si>
+    <t>删除一个老师</t>
+  </si>
+  <si>
+    <t>添加一个学生</t>
+  </si>
+  <si>
+    <t>修改学生信息</t>
+  </si>
+  <si>
+    <t>删除一个学生</t>
+  </si>
+  <si>
+    <t>开设一门课程</t>
+  </si>
+  <si>
+    <t>修改课程信息</t>
+  </si>
+  <si>
+    <t>关闭一门课程</t>
+  </si>
+  <si>
+    <t>新增一个教务</t>
+  </si>
+  <si>
+    <t>删除一个教务</t>
+  </si>
+  <si>
+    <t>修改一个教务</t>
+  </si>
+  <si>
+    <t>修改一个直播间</t>
+  </si>
+  <si>
+    <t>锁定一个直播间</t>
+  </si>
+  <si>
+    <t>新增一个轮播图</t>
+  </si>
+  <si>
+    <t>删除一个轮播图</t>
+  </si>
+  <si>
+    <t>新增一条资讯</t>
+  </si>
+  <si>
+    <t>删除一条资讯</t>
+  </si>
+  <si>
+    <t>新增一条公告</t>
+  </si>
+  <si>
+    <t>删除一条公告</t>
+  </si>
+  <si>
+    <t>置顶一条公告</t>
+  </si>
+  <si>
+    <t>取消置顶一条公告</t>
+  </si>
+  <si>
+    <t>本校敏感词列表</t>
+  </si>
+  <si>
+    <t>新增一个敏感词</t>
+  </si>
+  <si>
+    <t>删除一个敏感词</t>
+  </si>
+  <si>
+    <t>锁定一条学友圈动态</t>
+  </si>
+  <si>
+    <t>删除一条学友圈动态</t>
+  </si>
+  <si>
+    <t>删除一个院校</t>
+  </si>
+  <si>
+    <t>所有机构列表</t>
+  </si>
+  <si>
+    <t>新增一个管理员</t>
+  </si>
+  <si>
+    <t>修改管理员信息</t>
+  </si>
+  <si>
+    <t>删除一个管理员</t>
+  </si>
+  <si>
+    <t>新增一个展示课程</t>
+  </si>
+  <si>
+    <t>删除一个展示课程</t>
+  </si>
+  <si>
+    <t>同意一个院校申请</t>
+  </si>
+  <si>
+    <t>账单列表</t>
   </si>
 </sst>
 </file>
@@ -75,10 +600,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,36 +621,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,16 +635,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,6 +653,30 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,16 +706,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,9 +729,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,13 +749,33 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -254,13 +785,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,163 +959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,8 +976,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,9 +993,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,13 +1032,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,17 +1062,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,160 +1075,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1013,14 +1547,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.8888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.6666666666667" style="1" customWidth="1"/>
@@ -1030,11 +1564,13 @@
     <col min="6" max="6" width="14.2222222222222" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.3333333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+    <col min="9" max="9" width="20.4444444444444" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.88888888888889" style="1"/>
+    <col min="13" max="13" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:10">
+    <row r="1" ht="45" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,34 +1601,1689 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="60" spans="1:8">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="60" hidden="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="38.25" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="38.25" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="38.25" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="38.25" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="38.25" hidden="1" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="38.25" hidden="1" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="38.25" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="45" hidden="1" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="60" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="75" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="120" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="75" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="90" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="60" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="60" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="60" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" ht="45" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="45" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="1">
+        <v>4</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J44" s="1">
+        <v>4</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J45" s="1">
+        <v>4</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46" s="1">
+        <v>4</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47" s="1">
+        <v>4</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" s="1">
+        <v>4</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J49" s="1">
+        <v>4</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J50" s="1">
+        <v>4</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="30" spans="1:11">
+      <c r="A51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J51" s="1">
+        <v>4</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" s="1">
+        <v>4</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" s="1">
+        <v>4</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J56" s="1">
+        <v>4</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57" s="1">
+        <v>4</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J58" s="1">
+        <v>4</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J59" s="1">
+        <v>4</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J60" s="1">
+        <v>4</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J61" s="1">
+        <v>4</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J62" s="1">
+        <v>4</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J63" s="1">
+        <v>4</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J64" s="1">
+        <v>4</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J66" s="1">
+        <v>4</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J67" s="1">
+        <v>4</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J68" s="1">
+        <v>4</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J70" s="1">
+        <v>4</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J71" s="1">
+        <v>4</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J72" s="1">
+        <v>4</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J73" s="1">
+        <v>4</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J74" s="1">
+        <v>3</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J75" s="1">
+        <v>3</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J76" s="1">
+        <v>3</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J77" s="1">
+        <v>3</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J78" s="1">
+        <v>3</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J79" s="1">
+        <v>3</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J80" s="1">
+        <v>3</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J81" s="1">
+        <v>3</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J82" s="1">
+        <v>3</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J83" s="1">
+        <v>3</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J84" s="1">
+        <v>3</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J85" s="1">
+        <v>3</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J86" s="1">
+        <v>3</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J87" s="1">
+        <v>3</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J88" s="1">
+        <v>3</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J89" s="1">
+        <v>3</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J90" s="1">
+        <v>3</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J91" s="1">
+        <v>3</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J92" s="1">
+        <v>3</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J93" s="1">
+        <v>3</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J94" s="1">
+        <v>3</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J95" s="1">
+        <v>3</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J96" s="1">
+        <v>3</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J97" s="1">
+        <v>3</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J98" s="1">
+        <v>3</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J99" s="1">
+        <v>3</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J100" s="1">
+        <v>3</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J101" s="1">
+        <v>3</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J102" s="1">
+        <v>3</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J103" s="1">
+        <v>3</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J104" s="1">
+        <v>3</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J105" s="1">
+        <v>3</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J106" s="1">
+        <v>3</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J107" s="1">
+        <v>3</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J108" s="1">
+        <v>3</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J109" s="1">
+        <v>3</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J110" s="1">
+        <v>3</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J111" s="1">
+        <v>3</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J112" s="1">
+        <v>3</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J113" s="1">
+        <v>3</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J114" s="1">
+        <v>3</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J115" s="1">
+        <v>3</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J116" s="1">
+        <v>3</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J117" s="1">
+        <v>3</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J118" s="1">
+        <v>3</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J119" s="1">
+        <v>3</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J120" s="1">
+        <v>3</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J121" s="1">
+        <v>3</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J122" s="1">
+        <v>3</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J123" s="1">
+        <v>3</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J124" s="1">
+        <v>3</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J125" s="1">
+        <v>3</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J126" s="1">
+        <v>3</v>
+      </c>
+      <c r="K126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J127" s="1">
+        <v>3</v>
+      </c>
+      <c r="K127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J128" s="1">
+        <v>2</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K128">
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="equal" val=""/>
+        <customFilter operator="equal" val="0"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:K128">
+    <sortCondition ref="J2:J128" descending="1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/环境类/接口列表.xlsx
+++ b/环境类/接口列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
   <si>
     <t>接口名称</t>
   </si>
@@ -100,12 +100,18 @@
     <t>List&lt;CourseBean&gt;</t>
   </si>
   <si>
+    <t>时间倒序</t>
+  </si>
+  <si>
     <t>热门课程列表</t>
   </si>
   <si>
     <t>http://www.fstechnology.cn:8080/YZEduDBServer/TopCourse</t>
   </si>
   <si>
+    <t>学习人数倒序</t>
+  </si>
+  <si>
     <t>直播课程列表</t>
   </si>
   <si>
@@ -181,6 +187,9 @@
     <t>"user_id",1;"classification_id" 1</t>
   </si>
   <si>
+    <t>通过分类id查找课程表中分类为选中分类id的课程</t>
+  </si>
+  <si>
     <t>搜索结果列表</t>
   </si>
   <si>
@@ -196,85 +205,85 @@
     <t>"user_id",1;"keyword" Shell</t>
   </si>
   <si>
+    <t>学生登录</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/StudentLogin</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>student_id,student_password</t>
+  </si>
+  <si>
+    <t>student_id int类型,student_password String类型</t>
+  </si>
+  <si>
+    <t>StudentBean</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/UserLogin</t>
+  </si>
+  <si>
+    <t>user_id,student_password</t>
+  </si>
+  <si>
+    <t>user_id int类型,user_password  String类型</t>
+  </si>
+  <si>
+    <t>判断该用户是被学生用户还是教师用户绑定,返回TeacherBean或StudentBean,如果是自由人没有绑定,则返回StudentBean,学号设为null,学生姓名设为("用户"+手机号)</t>
+  </si>
+  <si>
+    <t>教师登录</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/TeacherLogin</t>
+  </si>
+  <si>
+    <t>teacher_id,teacher_password</t>
+  </si>
+  <si>
+    <t>teacher_id int 类型,teacher_password String类型</t>
+  </si>
+  <si>
+    <t>TeacherBean</t>
+  </si>
+  <si>
+    <t>教务登录</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/EduAdminLogin</t>
+  </si>
+  <si>
+    <t>edu_admin_id,edu_admin_password</t>
+  </si>
+  <si>
+    <t>edu_admin_id int类型,edu_admin_password String类型</t>
+  </si>
+  <si>
+    <t>EduAdminBean</t>
+  </si>
+  <si>
+    <t>运营管理员登录</t>
+  </si>
+  <si>
+    <t>http://www.fstechnology.cn:8080/YZEduDBServer/AdminLogin</t>
+  </si>
+  <si>
+    <t>admin_id,admin_password</t>
+  </si>
+  <si>
+    <t>admin_id int 类型,admin password String类型</t>
+  </si>
+  <si>
+    <t>AdminBean</t>
+  </si>
+  <si>
     <t>课程交流列表</t>
-  </si>
-  <si>
-    <t>学生登录</t>
-  </si>
-  <si>
-    <t>http://www.fstechnology.cn:8080/YZEduDBServer/StudentLogin</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>student_id,student_password</t>
-  </si>
-  <si>
-    <t>student_id int类型,student_password String类型</t>
-  </si>
-  <si>
-    <t>StudentBean</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>http://www.fstechnology.cn:8080/YZEduDBServer/UserLogin</t>
-  </si>
-  <si>
-    <t>user_id,student_password</t>
-  </si>
-  <si>
-    <t>user_id int类型,user_password  String类型</t>
-  </si>
-  <si>
-    <t>判断该用户是被学生用户还是教师用户绑定,返回TeacherBean或StudentBean,如果是自由人没有绑定,则返回StudentBean,学号设为null,学生姓名设为("用户"+手机号)</t>
-  </si>
-  <si>
-    <t>教师登录</t>
-  </si>
-  <si>
-    <t>http://www.fstechnology.cn:8080/YZEduDBServer/TeacherLogin</t>
-  </si>
-  <si>
-    <t>teacher_id,teacher_password</t>
-  </si>
-  <si>
-    <t>teacher_id int 类型,teacher_password String类型</t>
-  </si>
-  <si>
-    <t>TeacherBean</t>
-  </si>
-  <si>
-    <t>教务登录</t>
-  </si>
-  <si>
-    <t>http://www.fstechnology.cn:8080/YZEduDBServer/EduAdminLogin</t>
-  </si>
-  <si>
-    <t>edu_admin_id,edu_admin_password</t>
-  </si>
-  <si>
-    <t>edu_admin_id int类型,edu_admin_password String类型</t>
-  </si>
-  <si>
-    <t>EduAdminBean</t>
-  </si>
-  <si>
-    <t>运营管理员登录</t>
-  </si>
-  <si>
-    <t>http://www.fstechnology.cn:8080/YZEduDBServer/AdminLogin</t>
-  </si>
-  <si>
-    <t>admin_id,admin_password</t>
-  </si>
-  <si>
-    <t>admin_id int 类型,admin password String类型</t>
-  </si>
-  <si>
-    <t>AdminBean</t>
   </si>
   <si>
     <t>一条院校资讯详情</t>
@@ -601,9 +610,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -621,7 +630,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,17 +683,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,34 +706,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -706,9 +729,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,23 +758,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,20 +768,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,7 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +800,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,7 +824,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,151 +962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,8 +985,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,11 +1002,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,41 +1069,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,148 +1084,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1551,7 +1560,7 @@
   <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -1672,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="38.25" spans="1:11">
+    <row r="4" ht="38.25" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1697,13 +1706,16 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" ht="38.25" spans="1:11">
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="38.25" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -1723,13 +1735,16 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" ht="38.25" spans="1:11">
       <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -1741,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1">
         <v>5</v>
@@ -1752,10 +1767,10 @@
     </row>
     <row r="7" ht="38.25" hidden="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1769,10 +1784,10 @@
     </row>
     <row r="8" ht="38.25" hidden="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -1786,25 +1801,25 @@
     </row>
     <row r="9" ht="38.25" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1">
         <v>5</v>
@@ -1815,25 +1830,25 @@
     </row>
     <row r="10" ht="45" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1">
         <v>5</v>
@@ -1844,10 +1859,10 @@
     </row>
     <row r="11" ht="45" hidden="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1859,24 +1874,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="60" spans="1:11">
+    <row r="12" ht="60" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>26</v>
@@ -1887,25 +1902,28 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" ht="45" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>26</v>
@@ -1914,9 +1932,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" ht="75" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="J14" s="1">
         <v>5</v>
@@ -1925,24 +1958,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="75" spans="1:11">
+    <row r="15" ht="120" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
@@ -1951,24 +1984,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="120" spans="1:11">
+    <row r="16" ht="75" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1">
         <v>5</v>
@@ -1977,24 +2010,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="75" spans="1:11">
+    <row r="17" ht="90" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J17" s="1">
         <v>5</v>
@@ -2003,24 +2036,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="90" spans="1:11">
+    <row r="18" ht="60" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J18" s="1">
         <v>5</v>
@@ -2029,27 +2062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="60" spans="1:11">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -2057,7 +2075,7 @@
     </row>
     <row r="20" ht="60" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
@@ -2066,7 +2084,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1">
         <v>4</v>
@@ -2077,10 +2095,10 @@
     </row>
     <row r="21" ht="60" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -2091,10 +2109,10 @@
     </row>
     <row r="22" ht="45" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J22" s="1">
         <v>4</v>
@@ -2105,7 +2123,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J23" s="1">
         <v>4</v>
@@ -2116,10 +2134,10 @@
     </row>
     <row r="24" ht="45" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J24" s="1">
         <v>4</v>
@@ -2130,7 +2148,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J25" s="1">
         <v>4</v>
@@ -2141,7 +2159,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J26" s="1">
         <v>4</v>
@@ -2152,7 +2170,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J27" s="1">
         <v>4</v>
@@ -2163,7 +2181,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J28" s="1">
         <v>4</v>
@@ -2174,7 +2192,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J29" s="1">
         <v>4</v>
@@ -2185,7 +2203,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J30" s="1">
         <v>4</v>
@@ -2196,7 +2214,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J31" s="1">
         <v>4</v>
@@ -2207,7 +2225,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J32" s="1">
         <v>4</v>
@@ -2218,7 +2236,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J33" s="1">
         <v>4</v>
@@ -2229,7 +2247,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J34" s="1">
         <v>4</v>
@@ -2240,7 +2258,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J35" s="1">
         <v>4</v>
@@ -2251,7 +2269,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J36" s="1">
         <v>4</v>
@@ -2262,7 +2280,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J37" s="1">
         <v>4</v>
@@ -2273,7 +2291,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J38" s="1">
         <v>4</v>
@@ -2284,7 +2302,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J39" s="1">
         <v>4</v>
@@ -2295,7 +2313,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J40" s="1">
         <v>4</v>
@@ -2306,7 +2324,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J41" s="1">
         <v>4</v>
@@ -2317,7 +2335,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J42" s="1">
         <v>4</v>
@@ -2328,7 +2346,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J43" s="1">
         <v>4</v>
@@ -2339,7 +2357,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J44" s="1">
         <v>4</v>
@@ -2350,7 +2368,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J45" s="1">
         <v>4</v>
@@ -2361,7 +2379,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J46" s="1">
         <v>4</v>
@@ -2372,7 +2390,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J47" s="1">
         <v>4</v>
@@ -2383,7 +2401,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J48" s="1">
         <v>4</v>
@@ -2394,7 +2412,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J49" s="1">
         <v>4</v>
@@ -2405,7 +2423,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J50" s="1">
         <v>4</v>
@@ -2416,7 +2434,7 @@
     </row>
     <row r="51" ht="30" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J51" s="1">
         <v>4</v>
@@ -2427,7 +2445,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J52" s="1">
         <v>4</v>
@@ -2438,7 +2456,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J53" s="1">
         <v>4</v>
@@ -2449,7 +2467,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J54" s="1">
         <v>4</v>
@@ -2460,7 +2478,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J55" s="1">
         <v>4</v>
@@ -2471,7 +2489,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J56" s="1">
         <v>4</v>
@@ -2482,7 +2500,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J57" s="1">
         <v>4</v>
@@ -2493,7 +2511,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J58" s="1">
         <v>4</v>
@@ -2504,7 +2522,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J59" s="1">
         <v>4</v>
@@ -2515,7 +2533,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J60" s="1">
         <v>4</v>
@@ -2526,7 +2544,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J61" s="1">
         <v>4</v>
@@ -2537,7 +2555,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J62" s="1">
         <v>4</v>
@@ -2548,7 +2566,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J63" s="1">
         <v>4</v>
@@ -2559,7 +2577,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J64" s="1">
         <v>4</v>
@@ -2570,7 +2588,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J65" s="1">
         <v>4</v>
@@ -2581,7 +2599,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J66" s="1">
         <v>4</v>
@@ -2592,7 +2610,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J67" s="1">
         <v>4</v>
@@ -2603,7 +2621,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J68" s="1">
         <v>4</v>
@@ -2614,7 +2632,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J69" s="1">
         <v>4</v>
@@ -2625,7 +2643,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J70" s="1">
         <v>4</v>
@@ -2636,7 +2654,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J71" s="1">
         <v>4</v>
@@ -2647,7 +2665,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J72" s="1">
         <v>4</v>
@@ -2658,7 +2676,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J73" s="1">
         <v>4</v>
@@ -2669,7 +2687,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J74" s="1">
         <v>3</v>
@@ -2680,7 +2698,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J75" s="1">
         <v>3</v>
@@ -2691,7 +2709,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J76" s="1">
         <v>3</v>
@@ -2702,7 +2720,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J77" s="1">
         <v>3</v>
@@ -2713,7 +2731,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J78" s="1">
         <v>3</v>
@@ -2724,7 +2742,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J79" s="1">
         <v>3</v>
@@ -2735,7 +2753,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J80" s="1">
         <v>3</v>
@@ -2746,7 +2764,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J81" s="1">
         <v>3</v>
@@ -2757,7 +2775,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J82" s="1">
         <v>3</v>
@@ -2768,7 +2786,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J83" s="1">
         <v>3</v>
@@ -2779,7 +2797,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J84" s="1">
         <v>3</v>
@@ -2790,7 +2808,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J85" s="1">
         <v>3</v>
@@ -2801,7 +2819,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J86" s="1">
         <v>3</v>
@@ -2812,7 +2830,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J87" s="1">
         <v>3</v>
@@ -2823,7 +2841,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J88" s="1">
         <v>3</v>
@@ -2834,7 +2852,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J89" s="1">
         <v>3</v>
@@ -2845,7 +2863,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J90" s="1">
         <v>3</v>
@@ -2856,7 +2874,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J91" s="1">
         <v>3</v>
@@ -2867,7 +2885,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J92" s="1">
         <v>3</v>
@@ -2878,7 +2896,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J93" s="1">
         <v>3</v>
@@ -2889,7 +2907,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J94" s="1">
         <v>3</v>
@@ -2900,7 +2918,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J95" s="1">
         <v>3</v>
@@ -2911,7 +2929,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J96" s="1">
         <v>3</v>
@@ -2922,7 +2940,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J97" s="1">
         <v>3</v>
@@ -2933,7 +2951,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J98" s="1">
         <v>3</v>
@@ -2944,7 +2962,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J99" s="1">
         <v>3</v>
@@ -2955,7 +2973,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J100" s="1">
         <v>3</v>
@@ -2966,7 +2984,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J101" s="1">
         <v>3</v>
@@ -2977,7 +2995,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J102" s="1">
         <v>3</v>
@@ -2988,7 +3006,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J103" s="1">
         <v>3</v>
@@ -2999,7 +3017,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J104" s="1">
         <v>3</v>
@@ -3010,7 +3028,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J105" s="1">
         <v>3</v>
@@ -3021,7 +3039,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J106" s="1">
         <v>3</v>
@@ -3032,7 +3050,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J107" s="1">
         <v>3</v>
@@ -3043,7 +3061,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J108" s="1">
         <v>3</v>
@@ -3054,7 +3072,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J109" s="1">
         <v>3</v>
@@ -3065,7 +3083,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J110" s="1">
         <v>3</v>
@@ -3076,7 +3094,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J111" s="1">
         <v>3</v>
@@ -3087,7 +3105,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J112" s="1">
         <v>3</v>
@@ -3098,7 +3116,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J113" s="1">
         <v>3</v>
@@ -3109,7 +3127,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J114" s="1">
         <v>3</v>
@@ -3120,7 +3138,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J115" s="1">
         <v>3</v>
@@ -3131,7 +3149,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J116" s="1">
         <v>3</v>
@@ -3142,7 +3160,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J117" s="1">
         <v>3</v>
@@ -3153,7 +3171,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J118" s="1">
         <v>3</v>
@@ -3164,7 +3182,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J119" s="1">
         <v>3</v>
@@ -3175,7 +3193,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J120" s="1">
         <v>3</v>
@@ -3186,7 +3204,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J121" s="1">
         <v>3</v>
@@ -3197,7 +3215,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J122" s="1">
         <v>3</v>
@@ -3208,7 +3226,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J123" s="1">
         <v>3</v>
@@ -3219,7 +3237,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J124" s="1">
         <v>3</v>
@@ -3230,7 +3248,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J125" s="1">
         <v>3</v>
@@ -3241,7 +3259,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J126" s="1">
         <v>3</v>
@@ -3252,7 +3270,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J127" s="1">
         <v>3</v>
@@ -3263,7 +3281,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J128" s="1">
         <v>2</v>
@@ -3280,6 +3298,9 @@
         <customFilter operator="equal" val="0"/>
       </customFilters>
     </filterColumn>
+    <sortState ref="A2:K128">
+      <sortCondition ref="J2:J128" descending="1"/>
+    </sortState>
   </autoFilter>
   <sortState ref="A2:K128">
     <sortCondition ref="J2:J128" descending="1"/>

--- a/环境类/接口列表.xlsx
+++ b/环境类/接口列表.xlsx
@@ -184,7 +184,7 @@
     <t>user_id int类型,classification_id int类型</t>
   </si>
   <si>
-    <t>"user_id",1;"classification_id" 1</t>
+    <t>"user_id",1;"classification_own" 4,"page":1</t>
   </si>
   <si>
     <t>通过分类id查找课程表中分类为选中分类id的课程</t>
@@ -202,7 +202,7 @@
     <t>user_id int类型,keyword String类型</t>
   </si>
   <si>
-    <t>"user_id",1;"keyword" Shell</t>
+    <t>"user_id",1;"keyword" "Shell","page":1</t>
   </si>
   <si>
     <t>学生登录</t>
@@ -609,10 +609,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -643,37 +643,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -683,7 +652,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,7 +660,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,7 +692,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,14 +722,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,21 +730,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,8 +743,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,7 +788,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,19 +812,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,97 +866,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,13 +896,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,13 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,6 +939,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,6 +995,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1004,22 +1015,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,28 +1065,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,145 +1084,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1559,8 +1559,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3298,7 +3298,7 @@
         <customFilter operator="equal" val="0"/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A2:K128">
+    <sortState ref="A1:K128">
       <sortCondition ref="J2:J128" descending="1"/>
     </sortState>
   </autoFilter>

--- a/环境类/接口列表.xlsx
+++ b/环境类/接口列表.xlsx
@@ -178,7 +178,7 @@
     <t>http://www.fstechnology.cn:8080/YZEduDBServer/ClassificationCourse</t>
   </si>
   <si>
-    <t>user_id,classification_id</t>
+    <t>user_id,classification_id，page</t>
   </si>
   <si>
     <t>user_id int类型,classification_id int类型</t>
@@ -609,9 +609,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -643,22 +643,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -674,11 +658,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,7 +707,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,47 +737,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,9 +752,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -788,7 +788,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,13 +836,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,115 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +908,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,19 +962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,11 +991,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,7 +1060,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,195 +1079,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1556,11 +1556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -1617,7 +1617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="60" hidden="1" spans="1:11">
+    <row r="2" ht="60" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="38.25" hidden="1" spans="1:11">
+    <row r="7" ht="38.25" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="38.25" hidden="1" spans="1:11">
+    <row r="8" ht="38.25" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="45" hidden="1" spans="1:11">
+    <row r="11" ht="45" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1902,6 +1902,7 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
+      <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
         <v>56</v>
       </c>
@@ -3292,12 +3293,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K128">
-    <filterColumn colId="10">
-      <customFilters>
-        <customFilter operator="equal" val=""/>
-        <customFilter operator="equal" val="0"/>
-      </customFilters>
-    </filterColumn>
     <sortState ref="A1:K128">
       <sortCondition ref="J2:J128" descending="1"/>
     </sortState>
